--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,16 +461,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>90</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -487,16 +487,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -504,22 +504,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -536,12 +536,35 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
